--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891914F1-67C4-7743-8088-587A791EA045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68B0E16-F2D4-9F47-8848-40564E2470AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -274,6 +274,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -313,6 +319,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -352,6 +364,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -391,6 +409,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1473,7 +1497,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1539,8 +1563,18 @@
       <c r="F5" s="3">
         <v>44966</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E6" s="1"/>
@@ -1575,8 +1609,18 @@
       <c r="F10" s="3">
         <v>44971</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F11" s="3">
@@ -2463,23 +2507,23 @@
       <c r="F139" s="8"/>
       <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="L139" s="6" t="s">
         <v>5</v>
@@ -2520,23 +2564,23 @@
       <c r="F142" s="6"/>
       <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>0</v>
+        <v>164.0625</v>
       </c>
       <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>0</v>
+        <v>445.3125</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68B0E16-F2D4-9F47-8848-40564E2470AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91AC2C5-BC60-F34D-8CEC-19C3CA57A703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -280,6 +280,9 @@
                 <c:pt idx="5">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -324,6 +327,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,6 +376,9 @@
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -414,6 +423,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,7 +1509,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1525,20 +1537,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1626,8 +1638,18 @@
       <c r="F11" s="3">
         <v>44972</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F12" s="3">
@@ -2501,42 +2523,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>10.5</v>
-      </c>
-      <c r="H139" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>6</v>
-      </c>
-      <c r="I139" s="6">
+        <v>9</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>6</v>
-      </c>
-      <c r="J139" s="6">
+        <v>9</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>28.5</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>40.5</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2555,45 +2577,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>164.0625</v>
-      </c>
-      <c r="H142" s="6">
+        <v>210.9375</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>93.75</v>
-      </c>
-      <c r="I142" s="6">
+        <v>140.625</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>93.75</v>
-      </c>
-      <c r="J142" s="6">
+        <v>140.625</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-      <c r="L142" s="6">
+        <v>140.625</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>445.3125</v>
+        <v>632.8125</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2603,11 +2630,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91AC2C5-BC60-F34D-8CEC-19C3CA57A703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719BCF7-8389-CA45-B0E7-630427F202F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -283,6 +283,12 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -330,6 +336,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,6 +388,9 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -426,6 +438,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,10 +1521,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1537,20 +1552,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1655,14 +1670,26 @@
       <c r="F12" s="3">
         <v>44973</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F13" s="3">
         <v>44974</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>1.5</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.2">
@@ -2523,42 +2550,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>13.5</v>
-      </c>
-      <c r="H139" s="8">
+        <v>17</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>9</v>
-      </c>
-      <c r="I139" s="8">
+        <v>11</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>9</v>
-      </c>
-      <c r="J139" s="8">
+        <v>11</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>40.5</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2577,50 +2604,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>210.9375</v>
-      </c>
-      <c r="H142" s="8">
+        <v>265.625</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>140.625</v>
-      </c>
-      <c r="I142" s="8">
+        <v>171.875</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>140.625</v>
-      </c>
-      <c r="J142" s="8">
+        <v>171.875</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>140.625</v>
-      </c>
-      <c r="L142" s="8">
+        <v>171.875</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>632.8125</v>
+        <v>781.25</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2630,6 +2652,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719BCF7-8389-CA45-B0E7-630427F202F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003B820-C43E-C44C-A2F5-0F190BE7BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -288,6 +288,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,7 +1530,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1552,20 +1558,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1696,7 +1702,9 @@
       <c r="F14" s="3">
         <v>44975</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.2">
@@ -1710,7 +1718,9 @@
       <c r="F16" s="3">
         <v>44977</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.2">
@@ -2550,42 +2560,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>17</v>
-      </c>
-      <c r="H139" s="6">
+        <v>21</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
         <v>11</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
         <v>11</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
         <v>11</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>50</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2604,45 +2614,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>265.625</v>
-      </c>
-      <c r="H142" s="6">
+        <v>328.125</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
         <v>171.875</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>171.875</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
         <v>171.875</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>781.25</v>
+        <v>843.75</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2652,11 +2667,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003B820-C43E-C44C-A2F5-0F190BE7BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B69C59A-3384-E540-AD8F-6C5041977C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -293,6 +293,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1530,7 +1533,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1558,20 +1561,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1727,7 +1730,9 @@
       <c r="F17" s="3">
         <v>44978</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.2">
@@ -2560,42 +2565,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>21</v>
-      </c>
-      <c r="H139" s="8">
+        <v>22</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
         <v>11</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
         <v>11</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
         <v>11</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>54</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2614,50 +2619,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>328.125</v>
-      </c>
-      <c r="H142" s="8">
+        <v>343.75</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
         <v>171.875</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>171.875</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
         <v>171.875</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>843.75</v>
+        <v>859.375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2667,6 +2667,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B69C59A-3384-E540-AD8F-6C5041977C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801B739-BE83-F146-A4BD-90C14EE7DD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -296,7 +296,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,6 +355,12 @@
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -400,6 +412,12 @@
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -449,6 +467,12 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1533,7 +1557,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1561,20 +1585,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1726,114 +1750,134 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17" s="3">
         <v>44978</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F18" s="3">
         <v>44979</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19" s="3">
         <v>44980</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20" s="3">
         <v>44981</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21" s="3">
         <v>44982</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22" s="3">
         <v>44983</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23" s="3">
         <v>44984</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24" s="3">
         <v>44985</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25" s="3">
         <v>44986</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26" s="3">
         <v>44987</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F27" s="3">
         <v>44988</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F28" s="3">
         <v>44989</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F29" s="3">
         <v>44990</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F30" s="3">
         <v>44991</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F31" s="3">
         <v>44992</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F32" s="3">
         <v>44993</v>
       </c>
@@ -2565,42 +2609,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>22</v>
-      </c>
-      <c r="H139" s="6">
+        <v>28</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>11</v>
-      </c>
-      <c r="I139" s="6">
+        <v>15</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>11</v>
-      </c>
-      <c r="J139" s="6">
+        <v>15</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>55</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2619,45 +2663,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>343.75</v>
-      </c>
-      <c r="H142" s="6">
+        <v>437.5</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>171.875</v>
-      </c>
-      <c r="I142" s="6">
+        <v>234.375</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>171.875</v>
-      </c>
-      <c r="J142" s="6">
+        <v>234.375</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>171.875</v>
-      </c>
-      <c r="L142" s="6">
+        <v>234.375</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>859.375</v>
+        <v>1140.625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2667,11 +2716,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801B739-BE83-F146-A4BD-90C14EE7DD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D35DF9-3E7A-594D-BB91-CFAB9D3DB08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -304,6 +304,9 @@
                 <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -418,6 +421,9 @@
                 <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -473,6 +479,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1557,7 +1566,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1585,20 +1594,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1825,8 +1834,16 @@
       <c r="F24" s="3">
         <v>44985</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
       <c r="H24" s="4"/>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25" s="3">
@@ -2609,42 +2626,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>28</v>
-      </c>
-      <c r="H139" s="8">
+        <v>30</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
         <v>15</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>15</v>
-      </c>
-      <c r="J139" s="8">
+        <v>17</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>73</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2663,50 +2680,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>437.5</v>
-      </c>
-      <c r="H142" s="8">
+        <v>468.75</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
         <v>234.375</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>234.375</v>
-      </c>
-      <c r="J142" s="8">
+        <v>265.625</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>234.375</v>
-      </c>
-      <c r="L142" s="8">
+        <v>265.625</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>1140.625</v>
+        <v>1234.375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2716,6 +2728,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D35DF9-3E7A-594D-BB91-CFAB9D3DB08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABCF598-7657-9940-8E88-CA19C12E07DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -305,7 +305,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,7 +1566,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1594,20 +1594,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
         <v>44985</v>
       </c>
       <c r="G24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24">
@@ -2626,42 +2626,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>30</v>
-      </c>
-      <c r="H139" s="6">
+        <v>31</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
         <v>15</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
         <v>17</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
         <v>17</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>79</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2680,45 +2680,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>468.75</v>
-      </c>
-      <c r="H142" s="6">
+        <v>484.375</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
         <v>234.375</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>265.625</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
         <v>265.625</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>1234.375</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2728,11 +2733,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABCF598-7657-9940-8E88-CA19C12E07DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FF1FCF-363D-CE42-91A5-47D484F1D3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -307,6 +307,9 @@
                 <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -424,6 +427,9 @@
                 <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -482,6 +488,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1563,10 +1572,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1594,20 +1603,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1856,8 +1865,16 @@
       <c r="F26" s="3">
         <v>44987</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
       <c r="H26" s="4"/>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F27" s="3">
@@ -2626,42 +2643,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>31</v>
-      </c>
-      <c r="H139" s="8">
+        <v>33</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
         <v>15</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>17</v>
-      </c>
-      <c r="J139" s="8">
+        <v>19</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>80</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2680,50 +2697,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>484.375</v>
-      </c>
-      <c r="H142" s="8">
+        <v>515.625</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
         <v>234.375</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>265.625</v>
-      </c>
-      <c r="J142" s="8">
+        <v>296.875</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>265.625</v>
-      </c>
-      <c r="L142" s="8">
+        <v>296.875</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>1250</v>
+        <v>1343.75</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2733,6 +2745,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FF1FCF-363D-CE42-91A5-47D484F1D3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B8D837-5608-FB4A-A6CF-AFC0051DA4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -308,7 +308,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,9 +1573,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1603,20 +1603,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1866,7 +1866,7 @@
         <v>44987</v>
       </c>
       <c r="G26" s="4">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26">
@@ -2643,42 +2643,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>33</v>
-      </c>
-      <c r="H139" s="6">
+        <v>34.25</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
         <v>15</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
         <v>19</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
         <v>19</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>86</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>87.25</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2697,45 +2697,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>515.625</v>
-      </c>
-      <c r="H142" s="6">
+        <v>535.15625</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
         <v>234.375</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>296.875</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
         <v>296.875</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>1343.75</v>
+        <v>1363.28125</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2745,11 +2750,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B8D837-5608-FB4A-A6CF-AFC0051DA4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6011B977-2E2A-024E-8B99-90665EDF5581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -309,6 +309,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,9 +1576,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
+      <selection pane="bottomLeft" activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1603,20 +1606,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1887,7 +1890,9 @@
       <c r="F28" s="3">
         <v>44989</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4">
+        <v>1.5</v>
+      </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.2">
@@ -2643,42 +2648,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>34.25</v>
-      </c>
-      <c r="H139" s="8">
+        <v>35.75</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
         <v>15</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
         <v>19</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
         <v>19</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>87.25</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>88.75</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2697,50 +2702,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>535.15625</v>
-      </c>
-      <c r="H142" s="8">
+        <v>558.59375</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
         <v>234.375</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>296.875</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
         <v>296.875</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>1363.28125</v>
+        <v>1386.71875</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2750,6 +2750,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6011B977-2E2A-024E-8B99-90665EDF5581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B32BEBF-A987-D246-BF8B-AFC3FD94648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -312,6 +312,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,9 +1579,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K145" sqref="K145"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1606,20 +1609,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1906,7 +1909,9 @@
       <c r="F30" s="3">
         <v>44991</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.2">
@@ -2648,42 +2653,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>35.75</v>
-      </c>
-      <c r="H139" s="6">
+        <v>36.75</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
         <v>15</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
         <v>19</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
         <v>19</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>88.75</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>89.75</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2702,45 +2707,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>558.59375</v>
-      </c>
-      <c r="H142" s="6">
+        <v>574.21875</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
         <v>234.375</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>296.875</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
         <v>296.875</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>1386.71875</v>
+        <v>1402.34375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2750,11 +2760,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B32BEBF-A987-D246-BF8B-AFC3FD94648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC1D828-B2AA-9D43-A6B0-D7115DE23022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -316,6 +316,9 @@
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -373,6 +376,9 @@
                 <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -436,6 +442,9 @@
                 <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -497,6 +506,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1579,9 +1591,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1609,20 +1621,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1918,8 +1930,18 @@
       <c r="F31" s="3">
         <v>44992</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F32" s="3">
@@ -2653,42 +2675,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>36.75</v>
-      </c>
-      <c r="H139" s="8">
+        <v>38.75</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>15</v>
-      </c>
-      <c r="I139" s="8">
+        <v>17</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>19</v>
-      </c>
-      <c r="J139" s="8">
+        <v>21</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>89.75</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>97.75</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2707,50 +2729,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>574.21875</v>
-      </c>
-      <c r="H142" s="8">
+        <v>605.46875</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>234.375</v>
-      </c>
-      <c r="I142" s="8">
+        <v>265.625</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>296.875</v>
-      </c>
-      <c r="J142" s="8">
+        <v>328.125</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>296.875</v>
-      </c>
-      <c r="L142" s="8">
+        <v>328.125</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>1402.34375</v>
+        <v>1527.34375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2760,6 +2777,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC1D828-B2AA-9D43-A6B0-D7115DE23022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABABDA44-4F7A-D54D-87F7-A6DBE0B96B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -319,6 +319,9 @@
                 <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -379,6 +382,9 @@
                 <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -445,6 +451,9 @@
                 <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -509,6 +518,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1591,9 +1603,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
+      <selection pane="bottomLeft" activeCell="K144" sqref="K144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1621,20 +1633,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1950,112 +1962,122 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F33" s="3">
         <v>44994</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F34" s="3">
         <v>44995</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35" s="3">
         <v>44996</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36" s="3">
         <v>44997</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37" s="3">
         <v>44998</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38" s="3">
         <v>44999</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39" s="3">
         <v>45000</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40" s="3">
         <v>45001</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41" s="3">
         <v>45002</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42" s="3">
         <v>45003</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43" s="3">
         <v>45004</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44" s="3">
         <v>45005</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F45" s="3">
         <v>45006</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F46" s="3">
         <v>45007</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F47" s="3">
         <v>45008</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F48" s="3">
         <v>45009</v>
       </c>
@@ -2675,42 +2697,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>38.75</v>
-      </c>
-      <c r="H139" s="6">
+        <v>40.75</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>17</v>
-      </c>
-      <c r="I139" s="6">
+        <v>19</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>21</v>
-      </c>
-      <c r="J139" s="6">
+        <v>23</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>97.75</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>105.75</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2729,45 +2751,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>605.46875</v>
-      </c>
-      <c r="H142" s="6">
+        <v>636.71875</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>265.625</v>
-      </c>
-      <c r="I142" s="6">
+        <v>296.875</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>328.125</v>
-      </c>
-      <c r="J142" s="6">
+        <v>359.375</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>328.125</v>
-      </c>
-      <c r="L142" s="6">
+        <v>359.375</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>1527.34375</v>
+        <v>1652.34375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2777,11 +2804,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABABDA44-4F7A-D54D-87F7-A6DBE0B96B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7034724A-273B-8B41-AB1D-6B963A2D5563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -320,7 +320,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,9 +1603,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K144" sqref="K144"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34:K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1633,20 +1633,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -1967,7 +1967,7 @@
         <v>44994</v>
       </c>
       <c r="G33" s="4">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H33" s="4">
         <v>2</v>
@@ -2697,42 +2697,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>40.75</v>
-      </c>
-      <c r="H139" s="8">
+        <v>42.25</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
         <v>19</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
         <v>23</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
         <v>23</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>105.75</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>107.25</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2751,50 +2751,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>636.71875</v>
-      </c>
-      <c r="H142" s="8">
+        <v>660.15625</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
         <v>296.875</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>359.375</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
         <v>359.375</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>1652.34375</v>
+        <v>1675.78125</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2804,6 +2799,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7034724A-273B-8B41-AB1D-6B963A2D5563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -321,6 +321,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,9 +1606,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34:K133"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1633,20 +1636,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2004,7 +2007,9 @@
       <c r="F37" s="3">
         <v>44998</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.2">
@@ -2697,42 +2702,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>42.25</v>
-      </c>
-      <c r="H139" s="6">
+        <v>43.25</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
         <v>19</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
         <v>23</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
         <v>23</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>107.25</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>108.25</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2751,45 +2756,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>660.15625</v>
-      </c>
-      <c r="H142" s="6">
+        <v>675.78125</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
         <v>296.875</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>359.375</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
         <v>359.375</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>1675.78125</v>
+        <v>1691.40625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2799,11 +2809,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A1F9BD-26A9-9945-9C43-A6B49CB5C271}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="3440" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -455,6 +455,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1608,7 +1611,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1636,20 +1639,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2011,6 +2014,9 @@
         <v>1</v>
       </c>
       <c r="H37" s="4"/>
+      <c r="I37">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38" s="3">
@@ -2702,42 +2708,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
         <v>43.25</v>
       </c>
-      <c r="H139" s="8">
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
         <v>19</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>23</v>
-      </c>
-      <c r="J139" s="8">
+        <v>25</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
         <v>23</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>108.25</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>110.25</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2756,50 +2762,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
         <v>675.78125</v>
       </c>
-      <c r="H142" s="8">
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
         <v>296.875</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>359.375</v>
-      </c>
-      <c r="J142" s="8">
+        <v>390.625</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
         <v>359.375</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>1691.40625</v>
+        <v>1722.65625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2809,6 +2810,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A1F9BD-26A9-9945-9C43-A6B49CB5C271}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EE93AAF-11B5-8947-B9F1-E81C19C8F842}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -325,6 +325,9 @@
                 <c:pt idx="32">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -388,6 +391,9 @@
                 <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -460,6 +466,9 @@
                 <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -527,6 +536,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1307,6 +1319,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1609,9 +1625,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1639,20 +1655,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2022,8 +2038,18 @@
       <c r="F38" s="3">
         <v>44999</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="G38" s="4">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39" s="3">
@@ -2708,42 +2734,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="E139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>43.25</v>
-      </c>
-      <c r="H139" s="6">
+        <v>45.25</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>19</v>
-      </c>
-      <c r="I139" s="6">
+        <v>21</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
+        <v>27</v>
+      </c>
+      <c r="J139" s="8">
+        <f>SUM(J5,J6:J138)</f>
         <v>25</v>
-      </c>
-      <c r="J139" s="6">
-        <f>SUM(J5,J6:J138)</f>
-        <v>23</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>110.25</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>118.25</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2762,45 +2788,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>675.78125</v>
-      </c>
-      <c r="H142" s="6">
+        <v>707.03125</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>296.875</v>
-      </c>
-      <c r="I142" s="6">
+        <v>328.125</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
+        <v>421.875</v>
+      </c>
+      <c r="J142" s="8">
+        <f t="shared" si="0"/>
         <v>390.625</v>
       </c>
-      <c r="J142" s="6">
-        <f t="shared" si="0"/>
-        <v>359.375</v>
-      </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>1722.65625</v>
+        <v>1847.65625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2810,11 +2841,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EE93AAF-11B5-8947-B9F1-E81C19C8F842}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA08343-F3D5-1646-922D-C2AC98CBD9C2}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -328,6 +328,9 @@
                 <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -394,6 +397,12 @@
                 <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -469,6 +478,9 @@
                 <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -540,6 +552,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,9 +1640,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2056,14 +2071,26 @@
         <v>45000</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40" s="3">
         <v>45001</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41" s="3">
@@ -2740,23 +2767,23 @@
       <c r="F139" s="7"/>
       <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>45.25</v>
+        <v>47.25</v>
       </c>
       <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>118.25</v>
+        <v>129.25</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>5</v>
@@ -2797,23 +2824,23 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>707.03125</v>
+        <v>738.28125</v>
       </c>
       <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>328.125</v>
+        <v>421.875</v>
       </c>
       <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>421.875</v>
+        <v>453.125</v>
       </c>
       <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>390.625</v>
+        <v>406.25</v>
       </c>
       <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>1847.65625</v>
+        <v>2019.53125</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA08343-F3D5-1646-922D-C2AC98CBD9C2}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7362C9A7-D3FE-8941-B380-BB1B6C2A093A}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="3920" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -401,7 +401,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,7 +1642,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1670,20 +1670,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2083,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -2761,42 +2761,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="E139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
         <v>47.25</v>
       </c>
-      <c r="H139" s="8">
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>27</v>
-      </c>
-      <c r="I139" s="8">
+        <v>30</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
         <v>29</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
         <v>26</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>129.25</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>132.25</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2815,50 +2815,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
         <v>738.28125</v>
       </c>
-      <c r="H142" s="8">
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>421.875</v>
-      </c>
-      <c r="I142" s="8">
+        <v>468.75</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>453.125</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
         <v>406.25</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>2019.53125</v>
+        <v>2066.40625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2868,6 +2863,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9368753F-84CA-AD43-9A25-A6A10826257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7362C9A7-D3FE-8941-B380-BB1B6C2A093A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D522719-D1C9-E943-A696-5AAEAE764324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -329,6 +329,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1334,10 +1337,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1640,7 +1639,7 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
@@ -1670,20 +1669,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2103,7 +2102,9 @@
       <c r="F42" s="3">
         <v>45003</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4">
+        <v>2</v>
+      </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.2">
@@ -2761,42 +2762,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="E139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>47.25</v>
-      </c>
-      <c r="H139" s="6">
+        <v>49.25</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
         <v>30</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
         <v>29</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
         <v>26</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>132.25</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>134.25</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2815,45 +2816,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>738.28125</v>
-      </c>
-      <c r="H142" s="6">
+        <v>769.53125</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
         <v>468.75</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>453.125</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
         <v>406.25</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>2066.40625</v>
+        <v>2097.65625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2863,11 +2869,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D522719-D1C9-E943-A696-5AAEAE764324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381AADF-93B7-4544-A0F2-D73C55C4BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -404,7 +404,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,9 +1642,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1669,20 +1672,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2082,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -2105,7 +2108,9 @@
       <c r="G42" s="4">
         <v>2</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43" s="3">
@@ -2762,42 +2767,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="E139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
         <v>49.25</v>
       </c>
-      <c r="H139" s="8">
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>30</v>
-      </c>
-      <c r="I139" s="8">
+        <v>32</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
         <v>29</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
         <v>26</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>134.25</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>136.25</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2816,50 +2821,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
         <v>769.53125</v>
       </c>
-      <c r="H142" s="8">
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>468.75</v>
-      </c>
-      <c r="I142" s="8">
+        <v>500</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>453.125</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
         <v>406.25</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>2097.65625</v>
+        <v>2128.90625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2869,6 +2869,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381AADF-93B7-4544-A0F2-D73C55C4BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -334,6 +334,12 @@
                 <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -406,8 +412,20 @@
                 <c:pt idx="35">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="37">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,6 +505,9 @@
                 <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -561,6 +582,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,9 +1669,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J145" sqref="J145"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2126,9 @@
         <v>45002</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42" s="3">
@@ -2117,7 +2146,9 @@
         <v>45004</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44" s="3">
@@ -2130,8 +2161,18 @@
       <c r="F45" s="3">
         <v>45006</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F46" s="3">
@@ -2144,8 +2185,15 @@
       <c r="F47" s="3">
         <v>45008</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="G47" s="4">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F48" s="3">
@@ -2773,23 +2821,23 @@
       <c r="F139" s="8"/>
       <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>49.25</v>
+        <v>54.75</v>
       </c>
       <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>136.25</v>
+        <v>155.75</v>
       </c>
       <c r="L139" s="6" t="s">
         <v>5</v>
@@ -2830,23 +2878,23 @@
       <c r="F142" s="6"/>
       <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>769.53125</v>
+        <v>855.46875</v>
       </c>
       <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>453.125</v>
+        <v>484.375</v>
       </c>
       <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>406.25</v>
+        <v>468.75</v>
       </c>
       <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>2128.90625</v>
+        <v>2433.59375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C63A3BA-7C1D-6C41-94AC-200EFF61E640}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -427,6 +427,9 @@
                 <c:pt idx="42">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -508,6 +511,9 @@
                 <c:pt idx="40">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -587,6 +593,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1669,9 +1678,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1699,20 +1708,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2314,112 +2323,120 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F65" s="3">
         <v>45026</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F66" s="3">
         <v>45027</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F67" s="3">
         <v>45028</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F68" s="3">
         <v>45029</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F69" s="3">
         <v>45030</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F70" s="3">
         <v>45031</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F71" s="3">
         <v>45032</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F72" s="3">
         <v>45033</v>
       </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="4">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F73" s="3">
         <v>45034</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F74" s="3">
         <v>45035</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F75" s="3">
         <v>45036</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F76" s="3">
         <v>45037</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F77" s="3">
         <v>45038</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F78" s="3">
         <v>45039</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F79" s="3">
         <v>45040</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F80" s="3">
         <v>45041</v>
       </c>
@@ -2815,42 +2832,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="E139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
         <v>54.75</v>
       </c>
-      <c r="H139" s="6">
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>40</v>
-      </c>
-      <c r="I139" s="6">
+        <v>42</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>31</v>
-      </c>
-      <c r="J139" s="6">
+        <v>33</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>155.75</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>161.75</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2869,45 +2886,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
         <v>855.46875</v>
       </c>
-      <c r="H142" s="6">
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>625</v>
-      </c>
-      <c r="I142" s="6">
+        <v>656.25</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>484.375</v>
-      </c>
-      <c r="J142" s="6">
+        <v>515.625</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>468.75</v>
-      </c>
-      <c r="L142" s="6">
+        <v>500</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>2433.59375</v>
+        <v>2527.34375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2917,11 +2939,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C63A3BA-7C1D-6C41-94AC-200EFF61E640}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121B240D-30CA-234B-9671-49B3129C44EE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -430,6 +430,9 @@
                 <c:pt idx="67">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -514,6 +517,9 @@
                 <c:pt idx="67">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -596,6 +602,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1378,6 +1387,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1678,9 +1691,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomLeft" activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1708,20 +1721,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2392,7 +2405,15 @@
         <v>45034</v>
       </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="4">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F74" s="3">
@@ -2832,42 +2853,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="E139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
         <v>54.75</v>
       </c>
-      <c r="H139" s="8">
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>42</v>
-      </c>
-      <c r="I139" s="8">
+        <v>44</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>33</v>
-      </c>
-      <c r="J139" s="8">
+        <v>35</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>161.75</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>167.75</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2886,50 +2907,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
         <v>855.46875</v>
       </c>
-      <c r="H142" s="8">
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>656.25</v>
-      </c>
-      <c r="I142" s="8">
+        <v>687.5</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>515.625</v>
-      </c>
-      <c r="J142" s="8">
+        <v>546.875</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="L142" s="8">
+        <v>531.25</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>2527.34375</v>
+        <v>2621.09375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2939,6 +2955,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121B240D-30CA-234B-9671-49B3129C44EE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E22209AB-5CDE-4052-8704-C10683A4304C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -518,7 +518,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,10 +1387,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1691,18 +1687,18 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O72" sqref="O72"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="6" width="11.5" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>1</v>
       </c>
@@ -1719,25 +1715,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>1</v>
       </c>
@@ -1754,7 +1750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="3">
         <v>44966</v>
@@ -1772,7 +1768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
       <c r="F6" s="3">
         <v>44967</v>
@@ -1780,28 +1776,28 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F7" s="3">
         <v>44968</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F8" s="3">
         <v>44969</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F9" s="3">
         <v>44970</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F10" s="3">
         <v>44971</v>
       </c>
@@ -1818,7 +1814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>44972</v>
       </c>
@@ -1835,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F12" s="3">
         <v>44973</v>
       </c>
@@ -1852,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F13" s="3">
         <v>44974</v>
       </c>
@@ -1861,7 +1857,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F14" s="3">
         <v>44975</v>
       </c>
@@ -1870,14 +1866,14 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F15" s="3">
         <v>44976</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F16" s="3">
         <v>44977</v>
       </c>
@@ -1886,7 +1882,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="3">
         <v>44978</v>
       </c>
@@ -1903,14 +1899,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="3">
         <v>44979</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="3">
         <v>44980</v>
       </c>
@@ -1927,14 +1923,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="3">
         <v>44981</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" s="3">
         <v>44982</v>
       </c>
@@ -1943,21 +1939,21 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="3">
         <v>44983</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="3">
         <v>44984</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24" s="3">
         <v>44985</v>
       </c>
@@ -1972,14 +1968,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="3">
         <v>44986</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" s="3">
         <v>44987</v>
       </c>
@@ -1994,14 +1990,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" s="3">
         <v>44988</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28" s="3">
         <v>44989</v>
       </c>
@@ -2010,14 +2006,14 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29" s="3">
         <v>44990</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30" s="3">
         <v>44991</v>
       </c>
@@ -2026,7 +2022,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31" s="3">
         <v>44992</v>
       </c>
@@ -2043,14 +2039,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="3">
         <v>44993</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="3">
         <v>44994</v>
       </c>
@@ -2067,28 +2063,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="3">
         <v>44995</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="3">
         <v>44996</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36" s="3">
         <v>44997</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F37" s="3">
         <v>44998</v>
       </c>
@@ -2100,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F38" s="3">
         <v>44999</v>
       </c>
@@ -2117,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F39" s="3">
         <v>45000</v>
       </c>
@@ -2126,7 +2122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F40" s="3">
         <v>45001</v>
       </c>
@@ -2143,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F41" s="3">
         <v>45002</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F42" s="3">
         <v>45003</v>
       </c>
@@ -2163,7 +2159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F43" s="3">
         <v>45004</v>
       </c>
@@ -2172,14 +2168,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F44" s="3">
         <v>45005</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F45" s="3">
         <v>45006</v>
       </c>
@@ -2196,14 +2192,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F46" s="3">
         <v>45007</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F47" s="3">
         <v>45008</v>
       </c>
@@ -2217,175 +2213,175 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F48" s="3">
         <v>45009</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F49" s="3">
         <v>45010</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F50" s="3">
         <v>45011</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51" s="3">
         <v>45012</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F52" s="3">
         <v>45013</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F53" s="3">
         <v>45014</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F54" s="3">
         <v>45015</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F55" s="3">
         <v>45016</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F56" s="3">
         <v>45017</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F57" s="3">
         <v>45018</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F58" s="3">
         <v>45019</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F59" s="3">
         <v>45020</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F60" s="3">
         <v>45021</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F61" s="3">
         <v>45022</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F62" s="3">
         <v>45023</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F63" s="3">
         <v>45024</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F64" s="3">
         <v>45025</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F65" s="3">
         <v>45026</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F66" s="3">
         <v>45027</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F67" s="3">
         <v>45028</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F68" s="3">
         <v>45029</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F69" s="3">
         <v>45030</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F70" s="3">
         <v>45031</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F71" s="3">
         <v>45032</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F72" s="3">
         <v>45033</v>
       </c>
@@ -2400,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F73" s="3">
         <v>45034</v>
       </c>
@@ -2409,488 +2405,488 @@
         <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F74" s="3">
         <v>45035</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F75" s="3">
         <v>45036</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F76" s="3">
         <v>45037</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F77" s="3">
         <v>45038</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F78" s="3">
         <v>45039</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F79" s="3">
         <v>45040</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F80" s="3">
         <v>45041</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81" s="3">
         <v>45042</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82" s="3">
         <v>45043</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83" s="3">
         <v>45044</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84" s="3">
         <v>45045</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85" s="3">
         <v>45046</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F86" s="3">
         <v>45047</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F87" s="3">
         <v>45048</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F88" s="3">
         <v>45049</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F89" s="3">
         <v>45050</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F90" s="3">
         <v>45051</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F91" s="3">
         <v>45052</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F92" s="3">
         <v>45053</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F93" s="3">
         <v>45054</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F94" s="3">
         <v>45055</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F95" s="3">
         <v>45056</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F96" s="3">
         <v>45057</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F97" s="3">
         <v>45058</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F98" s="3">
         <v>45059</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F99" s="3">
         <v>45060</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F100" s="3">
         <v>45061</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F101" s="3">
         <v>45062</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F102" s="3">
         <v>45063</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F103" s="3">
         <v>45064</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F104" s="3">
         <v>45065</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F105" s="3">
         <v>45066</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F106" s="3">
         <v>45067</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F107" s="3">
         <v>45068</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F108" s="3">
         <v>45069</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F109" s="3">
         <v>45070</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F110" s="3">
         <v>45071</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F111" s="3">
         <v>45072</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F112" s="3">
         <v>45073</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F113" s="3">
         <v>45074</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F114" s="3">
         <v>45075</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F115" s="3">
         <v>45076</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F116" s="3">
         <v>45077</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F117" s="3">
         <v>45078</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F118" s="3">
         <v>45079</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F119" s="3">
         <v>45080</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F120" s="3">
         <v>45081</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F121" s="3">
         <v>45082</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F122" s="3">
         <v>45083</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F123" s="3">
         <v>45084</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F124" s="3">
         <v>45085</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F125" s="3">
         <v>45086</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F126" s="3">
         <v>45087</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F127" s="3">
         <v>45088</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F128" s="3">
         <v>45089</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F129" s="3">
         <v>45090</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F130" s="3">
         <v>45091</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F131" s="3"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F132" s="3"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F133" s="3"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F134" s="3"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F135" s="3"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F136" s="3"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F137" s="3"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+    <row r="139" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
         <v>54.75</v>
       </c>
-      <c r="H139" s="6">
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
         <v>44</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>35</v>
-      </c>
-      <c r="J139" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
         <v>34</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>167.75</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>169.25</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
-    </row>
-    <row r="141" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
+    </row>
+    <row r="141" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E141" s="9" t="s">
         <v>4</v>
       </c>
@@ -2907,45 +2903,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
-    </row>
-    <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="L141" s="8"/>
+    </row>
+    <row r="142" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
         <v>855.46875</v>
       </c>
-      <c r="H142" s="6">
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
         <v>687.5</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>546.875</v>
-      </c>
-      <c r="J142" s="6">
+        <v>570.3125</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
         <v>531.25</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>2621.09375</v>
-      </c>
-    </row>
-    <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+        <v>2644.53125</v>
+      </c>
+    </row>
+    <row r="143" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2955,11 +2956,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E22209AB-5CDE-4052-8704-C10683A4304C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00A3FBDF-5353-364C-8D0F-B49C062FD5C6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16000" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -433,6 +433,9 @@
                 <c:pt idx="68">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -520,6 +523,9 @@
                 <c:pt idx="68">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -605,6 +611,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1387,6 +1396,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1687,18 +1700,18 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" customWidth="1"/>
+    <col min="4" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
         <v>1</v>
       </c>
@@ -1715,25 +1728,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E5" s="1"/>
       <c r="F5" s="3">
         <v>44966</v>
@@ -1768,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E6" s="1"/>
       <c r="F6" s="3">
         <v>44967</v>
@@ -1776,28 +1789,28 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F7" s="3">
         <v>44968</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F8" s="3">
         <v>44969</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F9" s="3">
         <v>44970</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F10" s="3">
         <v>44971</v>
       </c>
@@ -1814,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F11" s="3">
         <v>44972</v>
       </c>
@@ -1831,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F12" s="3">
         <v>44973</v>
       </c>
@@ -1848,7 +1861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F13" s="3">
         <v>44974</v>
       </c>
@@ -1857,7 +1870,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F14" s="3">
         <v>44975</v>
       </c>
@@ -1866,14 +1879,14 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F15" s="3">
         <v>44976</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F16" s="3">
         <v>44977</v>
       </c>
@@ -1882,7 +1895,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17" s="3">
         <v>44978</v>
       </c>
@@ -1899,14 +1912,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F18" s="3">
         <v>44979</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19" s="3">
         <v>44980</v>
       </c>
@@ -1923,14 +1936,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20" s="3">
         <v>44981</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21" s="3">
         <v>44982</v>
       </c>
@@ -1939,21 +1952,21 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22" s="3">
         <v>44983</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23" s="3">
         <v>44984</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24" s="3">
         <v>44985</v>
       </c>
@@ -1968,14 +1981,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25" s="3">
         <v>44986</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26" s="3">
         <v>44987</v>
       </c>
@@ -1990,14 +2003,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F27" s="3">
         <v>44988</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F28" s="3">
         <v>44989</v>
       </c>
@@ -2006,14 +2019,14 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F29" s="3">
         <v>44990</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F30" s="3">
         <v>44991</v>
       </c>
@@ -2022,7 +2035,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F31" s="3">
         <v>44992</v>
       </c>
@@ -2039,14 +2052,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F32" s="3">
         <v>44993</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F33" s="3">
         <v>44994</v>
       </c>
@@ -2063,28 +2076,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F34" s="3">
         <v>44995</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35" s="3">
         <v>44996</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36" s="3">
         <v>44997</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37" s="3">
         <v>44998</v>
       </c>
@@ -2096,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38" s="3">
         <v>44999</v>
       </c>
@@ -2113,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39" s="3">
         <v>45000</v>
       </c>
@@ -2122,7 +2135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40" s="3">
         <v>45001</v>
       </c>
@@ -2139,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41" s="3">
         <v>45002</v>
       </c>
@@ -2148,7 +2161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42" s="3">
         <v>45003</v>
       </c>
@@ -2159,7 +2172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43" s="3">
         <v>45004</v>
       </c>
@@ -2168,14 +2181,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44" s="3">
         <v>45005</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F45" s="3">
         <v>45006</v>
       </c>
@@ -2192,14 +2205,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F46" s="3">
         <v>45007</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F47" s="3">
         <v>45008</v>
       </c>
@@ -2213,175 +2226,175 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F48" s="3">
         <v>45009</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="3">
         <v>45010</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="3">
         <v>45011</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="3">
         <v>45012</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="3">
         <v>45013</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="3">
         <v>45014</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="3">
         <v>45015</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="3">
         <v>45016</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="3">
         <v>45017</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="3">
         <v>45018</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="3">
         <v>45019</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="3">
         <v>45020</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60" s="3">
         <v>45021</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="3">
         <v>45022</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="3">
         <v>45023</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="3">
         <v>45024</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="3">
         <v>45025</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F65" s="3">
         <v>45026</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F66" s="3">
         <v>45027</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F67" s="3">
         <v>45028</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F68" s="3">
         <v>45029</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F69" s="3">
         <v>45030</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F70" s="3">
         <v>45031</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F71" s="3">
         <v>45032</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F72" s="3">
         <v>45033</v>
       </c>
@@ -2396,7 +2409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F73" s="3">
         <v>45034</v>
       </c>
@@ -2411,482 +2424,490 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F74" s="3">
         <v>45035</v>
       </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H74" s="4">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F75" s="3">
         <v>45036</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F76" s="3">
         <v>45037</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F77" s="3">
         <v>45038</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F78" s="3">
         <v>45039</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F79" s="3">
         <v>45040</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F80" s="3">
         <v>45041</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="3">
         <v>45042</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="3">
         <v>45043</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="3">
         <v>45044</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="3">
         <v>45045</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="3">
         <v>45046</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="3">
         <v>45047</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="3">
         <v>45048</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="3">
         <v>45049</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="3">
         <v>45050</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="3">
         <v>45051</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="3">
         <v>45052</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="3">
         <v>45053</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="3">
         <v>45054</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="3">
         <v>45055</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="3">
         <v>45056</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="3">
         <v>45057</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="3">
         <v>45058</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="3">
         <v>45059</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="3">
         <v>45060</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="3">
         <v>45061</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="3">
         <v>45062</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="3">
         <v>45063</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="3">
         <v>45064</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="3">
         <v>45065</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="3">
         <v>45066</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="3">
         <v>45067</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="3">
         <v>45068</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="3">
         <v>45069</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F109" s="3">
         <v>45070</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="3">
         <v>45071</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F111" s="3">
         <v>45072</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F112" s="3">
         <v>45073</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F113" s="3">
         <v>45074</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="3">
         <v>45075</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F115" s="3">
         <v>45076</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F116" s="3">
         <v>45077</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F117" s="3">
         <v>45078</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F118" s="3">
         <v>45079</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="3">
         <v>45080</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F120" s="3">
         <v>45081</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F121" s="3">
         <v>45082</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F122" s="3">
         <v>45083</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="3">
         <v>45084</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F124" s="3">
         <v>45085</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F125" s="3">
         <v>45086</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F126" s="3">
         <v>45087</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="3">
         <v>45088</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F128" s="3">
         <v>45089</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F129" s="3">
         <v>45090</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F130" s="3">
         <v>45091</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F131" s="3"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F132" s="3"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F133" s="3"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F134" s="3"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F135" s="3"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F136" s="3"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F137" s="3"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+    <row r="139" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
         <v>54.75</v>
       </c>
-      <c r="H139" s="8">
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>44</v>
-      </c>
-      <c r="I139" s="8">
+        <v>46</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>36.5</v>
-      </c>
-      <c r="J139" s="8">
+        <v>38.5</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>169.25</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>175.25</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
         <v>4</v>
       </c>
@@ -2903,50 +2924,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
-    </row>
-    <row r="142" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E142" s="8" t="s">
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
         <v>855.46875</v>
       </c>
-      <c r="H142" s="8">
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>687.5</v>
-      </c>
-      <c r="I142" s="8">
+        <v>718.75</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>570.3125</v>
-      </c>
-      <c r="J142" s="8">
+        <v>601.5625</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>531.25</v>
-      </c>
-      <c r="L142" s="8">
+        <v>562.5</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>2644.53125</v>
-      </c>
-    </row>
-    <row r="143" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+        <v>2738.28125</v>
+      </c>
+    </row>
+    <row r="143" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2956,6 +2972,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D7BA01A7-4A46-DE41-941C-B7BF6E879DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00A3FBDF-5353-364C-8D0F-B49C062FD5C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118E199-7C85-0B4E-BDFC-F73C0D6A015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16000" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="-5340" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -340,6 +340,18 @@
                 <c:pt idx="42">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -436,6 +448,18 @@
                 <c:pt idx="69">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -526,6 +550,15 @@
                 <c:pt idx="69">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -615,6 +648,18 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,10 +1441,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1699,10 +1740,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1730,20 +1771,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2443,15 +2484,32 @@
       <c r="F75" s="3">
         <v>45036</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="G75" s="4">
+        <v>2</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F76" s="3">
         <v>45037</v>
       </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="G76" s="4">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F77" s="3">
@@ -2471,15 +2529,35 @@
       <c r="F79" s="3">
         <v>45040</v>
       </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="G79" s="4">
+        <v>2</v>
+      </c>
+      <c r="H79" s="4">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F80" s="3">
         <v>45041</v>
       </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="G80" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="H80" s="4">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="3">
@@ -2870,42 +2948,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="E139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>54.75</v>
-      </c>
-      <c r="H139" s="6">
+        <v>64</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>46</v>
-      </c>
-      <c r="I139" s="6">
+        <v>58</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>38.5</v>
-      </c>
-      <c r="J139" s="6">
+        <v>45.5</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>175.25</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>212.5</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -2924,45 +3002,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>855.46875</v>
-      </c>
-      <c r="H142" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>718.75</v>
-      </c>
-      <c r="I142" s="6">
+        <v>906.25</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>601.5625</v>
-      </c>
-      <c r="J142" s="6">
+        <v>710.9375</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>562.5</v>
-      </c>
-      <c r="L142" s="6">
+        <v>703.125</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>2738.28125</v>
+        <v>3320.3125</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -2972,11 +3055,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118E199-7C85-0B4E-BDFC-F73C0D6A015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED4055-C362-774C-B5F8-1147B93CDE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5340" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -352,6 +352,12 @@
                 <c:pt idx="75">
                   <c:v>3.25</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -460,6 +466,12 @@
                 <c:pt idx="75">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -559,6 +571,12 @@
                 <c:pt idx="75">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -660,6 +678,12 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,9 +1765,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1771,20 +1795,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2559,112 +2583,132 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F81" s="3">
         <v>45042</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G81" s="4">
+        <v>2</v>
+      </c>
+      <c r="H81" s="4">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F82" s="3">
         <v>45043</v>
       </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G82" s="4">
+        <v>4</v>
+      </c>
+      <c r="H82" s="4">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F83" s="3">
         <v>45044</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F84" s="3">
         <v>45045</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F85" s="3">
         <v>45046</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F86" s="3">
         <v>45047</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F87" s="3">
         <v>45048</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F88" s="3">
         <v>45049</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F89" s="3">
         <v>45050</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F90" s="3">
         <v>45051</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F91" s="3">
         <v>45052</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F92" s="3">
         <v>45053</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F93" s="3">
         <v>45054</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F94" s="3">
         <v>45055</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F95" s="3">
         <v>45056</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F96" s="3">
         <v>45057</v>
       </c>
@@ -2948,42 +2992,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="E139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>64</v>
-      </c>
-      <c r="H139" s="8">
+        <v>70</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>58</v>
-      </c>
-      <c r="I139" s="8">
+        <v>66</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>45.5</v>
-      </c>
-      <c r="J139" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>212.5</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>238.5</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -3002,50 +3046,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>1000</v>
-      </c>
-      <c r="H142" s="8">
+        <v>1093.75</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>906.25</v>
-      </c>
-      <c r="I142" s="8">
+        <v>1031.25</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>710.9375</v>
-      </c>
-      <c r="J142" s="8">
+        <v>804.6875</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>703.125</v>
-      </c>
-      <c r="L142" s="8">
+        <v>796.875</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>3320.3125</v>
+        <v>3726.5625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3055,6 +3094,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED4055-C362-774C-B5F8-1147B93CDE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{2DED4055-C362-774C-B5F8-1147B93CDE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745FE161-65D6-9445-B683-1888712BA2FB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19320" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -358,6 +358,21 @@
                 <c:pt idx="77">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -472,6 +487,21 @@
                 <c:pt idx="77">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -577,6 +607,21 @@
                 <c:pt idx="77">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -684,6 +729,21 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1764,10 +1824,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1795,20 +1855,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2649,29 +2709,69 @@
       <c r="F87" s="3">
         <v>45048</v>
       </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="G87" s="4">
+        <v>2</v>
+      </c>
+      <c r="H87" s="4">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F88" s="3">
         <v>45049</v>
       </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+      <c r="G88" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H88" s="4">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>4.5</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F89" s="3">
         <v>45050</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+      <c r="G89" s="4">
+        <v>4</v>
+      </c>
+      <c r="H89" s="4">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
     </row>
     <row r="90" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F90" s="3">
         <v>45051</v>
       </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="G90" s="4">
+        <v>2</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F91" s="3">
@@ -2691,8 +2791,18 @@
       <c r="F93" s="3">
         <v>45054</v>
       </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="G93" s="4">
+        <v>2</v>
+      </c>
+      <c r="H93" s="4">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F94" s="3">
@@ -2992,42 +3102,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="E139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>70</v>
-      </c>
-      <c r="H139" s="6">
+        <v>84.5</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
+        <v>80</v>
+      </c>
+      <c r="I139" s="8">
+        <f>SUM(I5,I6:I138)</f>
         <v>66</v>
       </c>
-      <c r="I139" s="6">
-        <f>SUM(I5,I6:I138)</f>
-        <v>51.5</v>
-      </c>
-      <c r="J139" s="6">
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>238.5</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>293.5</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -3046,45 +3156,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>1093.75</v>
-      </c>
-      <c r="H142" s="6">
+        <v>1320.3125</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
+        <v>1250</v>
+      </c>
+      <c r="I142" s="8">
+        <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>1031.25</v>
       </c>
-      <c r="I142" s="6">
-        <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>804.6875</v>
-      </c>
-      <c r="J142" s="6">
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>796.875</v>
-      </c>
-      <c r="L142" s="6">
+        <v>984.375</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>3726.5625</v>
+        <v>4585.9375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3094,11 +3209,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{2DED4055-C362-774C-B5F8-1147B93CDE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745FE161-65D6-9445-B683-1888712BA2FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9FD93B-81A3-F845-ADD0-4825102A7225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19320" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="12000" yWindow="500" windowWidth="16800" windowHeight="16020" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -371,6 +371,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -500,6 +503,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -622,6 +628,9 @@
                 <c:pt idx="88">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -744,6 +753,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,10 +1836,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
+      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1855,20 +1867,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2792,10 +2804,10 @@
         <v>45054</v>
       </c>
       <c r="G93" s="4">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H93" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -2808,8 +2820,18 @@
       <c r="F94" s="3">
         <v>45055</v>
       </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="G94" s="4">
+        <v>2</v>
+      </c>
+      <c r="H94" s="4">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F95" s="3">
@@ -3102,42 +3124,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="E139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>84.5</v>
-      </c>
-      <c r="H139" s="8">
+        <v>88</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>80</v>
-      </c>
-      <c r="I139" s="8">
+        <v>83</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>66</v>
-      </c>
-      <c r="J139" s="8">
+        <v>68</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>293.5</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -3156,50 +3178,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>1320.3125</v>
-      </c>
-      <c r="H142" s="8">
+        <v>1375</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>1250</v>
-      </c>
-      <c r="I142" s="8">
+        <v>1296.875</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>1031.25</v>
-      </c>
-      <c r="J142" s="8">
+        <v>1062.5</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>984.375</v>
-      </c>
-      <c r="L142" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>4585.9375</v>
+        <v>4734.375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3209,6 +3226,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9FD93B-81A3-F845-ADD0-4825102A7225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520DFFA1-CC3F-FA4A-999C-19F264231DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="500" windowWidth="16800" windowHeight="16020" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="12000" yWindow="500" windowWidth="16800" windowHeight="15980" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -376,6 +376,12 @@
                 <c:pt idx="89">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -508,6 +514,12 @@
                 <c:pt idx="89">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -631,6 +643,12 @@
                 <c:pt idx="89">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -756,6 +774,12 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,10 +1860,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomLeft" activeCell="J142" sqref="J142:J143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1867,20 +1891,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2837,15 +2861,35 @@
       <c r="F95" s="3">
         <v>45056</v>
       </c>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="G95" s="4">
+        <v>2</v>
+      </c>
+      <c r="H95" s="4">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
     </row>
     <row r="96" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F96" s="3">
         <v>45057</v>
       </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+      <c r="G96" s="4">
+        <v>4</v>
+      </c>
+      <c r="H96" s="4">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="3">
@@ -3124,42 +3168,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="E139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>88</v>
-      </c>
-      <c r="H139" s="6">
+        <v>94</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>83</v>
-      </c>
-      <c r="I139" s="6">
+        <v>89</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>68</v>
-      </c>
-      <c r="J139" s="6">
+        <v>74</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>303</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -3178,45 +3222,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>1375</v>
-      </c>
-      <c r="H142" s="6">
+        <v>1468.75</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>1296.875</v>
-      </c>
-      <c r="I142" s="6">
+        <v>1390.625</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>1062.5</v>
-      </c>
-      <c r="J142" s="6">
+        <v>1156.25</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="L142" s="6">
+        <v>1093.75</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>4734.375</v>
+        <v>5109.375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3226,11 +3275,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520DFFA1-CC3F-FA4A-999C-19F264231DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461B25C6-1015-2042-9B1A-E58BE48E4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="500" windowWidth="16800" windowHeight="15980" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -381,6 +381,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,10 +1863,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J142" sqref="J142:J143"/>
+      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1891,20 +1894,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2902,7 +2905,9 @@
       <c r="F98" s="3">
         <v>45059</v>
       </c>
-      <c r="G98" s="4"/>
+      <c r="G98" s="4">
+        <v>2.5</v>
+      </c>
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.2">
@@ -3168,42 +3173,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="E139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>94</v>
-      </c>
-      <c r="H139" s="8">
+        <v>96.5</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
         <v>89</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
         <v>74</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
         <v>70</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>327</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>329.5</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -3222,50 +3227,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>1468.75</v>
-      </c>
-      <c r="H142" s="8">
+        <v>1507.8125</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
         <v>1390.625</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
         <v>1156.25</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
         <v>1093.75</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>5109.375</v>
+        <v>5148.4375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3275,6 +3275,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461B25C6-1015-2042-9B1A-E58BE48E4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDC8B22-D992-5C4A-8CBB-69FF66C4084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -385,6 +385,9 @@
                 <c:pt idx="93">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -523,6 +526,9 @@
                 <c:pt idx="91">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -652,6 +658,9 @@
                 <c:pt idx="91">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -782,6 +791,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1863,10 +1875,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6FB7-D46D-488C-A966-0ADB5C61A67C}">
   <dimension ref="E1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
+      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1894,20 +1906,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2894,14 +2906,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F97" s="3">
         <v>45058</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F98" s="3">
         <v>45059</v>
       </c>
@@ -2910,98 +2922,108 @@
       </c>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F99" s="3">
         <v>45060</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F100" s="3">
         <v>45061</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F101" s="3">
         <v>45062</v>
       </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G101" s="4">
+        <v>4</v>
+      </c>
+      <c r="H101" s="4">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F102" s="3">
         <v>45063</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F103" s="3">
         <v>45064</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F104" s="3">
         <v>45065</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F105" s="3">
         <v>45066</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F106" s="3">
         <v>45067</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F107" s="3">
         <v>45068</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F108" s="3">
         <v>45069</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F109" s="3">
         <v>45070</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F110" s="3">
         <v>45071</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F111" s="3">
         <v>45072</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F112" s="3">
         <v>45073</v>
       </c>
@@ -3173,42 +3195,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="E139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>96.5</v>
-      </c>
-      <c r="H139" s="6">
+        <v>100.5</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>89</v>
-      </c>
-      <c r="I139" s="6">
+        <v>93</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
+        <v>78</v>
+      </c>
+      <c r="J139" s="8">
+        <f>SUM(J5,J6:J138)</f>
         <v>74</v>
-      </c>
-      <c r="J139" s="6">
-        <f>SUM(J5,J6:J138)</f>
-        <v>70</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>329.5</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>345.5</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -3227,45 +3249,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>1507.8125</v>
-      </c>
-      <c r="H142" s="6">
+        <v>1570.3125</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>1390.625</v>
-      </c>
-      <c r="I142" s="6">
+        <v>1453.125</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
+        <v>1218.75</v>
+      </c>
+      <c r="J142" s="8">
+        <f t="shared" si="0"/>
         <v>1156.25</v>
       </c>
-      <c r="J142" s="6">
-        <f t="shared" si="0"/>
-        <v>1093.75</v>
-      </c>
-      <c r="L142" s="6">
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>5148.4375</v>
+        <v>5398.4375</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3275,11 +3302,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDC8B22-D992-5C4A-8CBB-69FF66C4084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{EEDC8B22-D992-5C4A-8CBB-69FF66C4084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61294477-273A-8F43-89C0-657EFF50D978}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -388,6 +388,12 @@
                 <c:pt idx="96">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -529,6 +535,12 @@
                 <c:pt idx="96">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -661,6 +673,12 @@
                 <c:pt idx="96">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -794,6 +812,12 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1876,9 +1900,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1906,20 +1930,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -2957,15 +2981,35 @@
       <c r="F102" s="3">
         <v>45063</v>
       </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="G102" s="4">
+        <v>2</v>
+      </c>
+      <c r="H102" s="4">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F103" s="3">
         <v>45064</v>
       </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="G103" s="4">
+        <v>4</v>
+      </c>
+      <c r="H103" s="4">
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
     </row>
     <row r="104" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F104" s="3">
@@ -3195,42 +3239,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="8">
+      <c r="E139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6">
         <f>SUM(G5,G5:G137)</f>
-        <v>100.5</v>
-      </c>
-      <c r="H139" s="8">
+        <v>106.5</v>
+      </c>
+      <c r="H139" s="6">
         <f>SUM(H5,H6:H138)</f>
-        <v>93</v>
-      </c>
-      <c r="I139" s="8">
+        <v>99</v>
+      </c>
+      <c r="I139" s="6">
         <f>SUM(I5,I6:I138)</f>
-        <v>78</v>
-      </c>
-      <c r="J139" s="8">
+        <v>85</v>
+      </c>
+      <c r="J139" s="6">
         <f>SUM(J5,J6:J138)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>345.5</v>
-      </c>
-      <c r="L139" s="8" t="s">
+        <v>370.5</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -3249,50 +3293,45 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="8"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6">
         <f>PRODUCT(G139,G141)</f>
-        <v>1570.3125</v>
-      </c>
-      <c r="H142" s="8">
+        <v>1664.0625</v>
+      </c>
+      <c r="H142" s="6">
         <f>PRODUCT(H139,H141)</f>
-        <v>1453.125</v>
-      </c>
-      <c r="I142" s="8">
+        <v>1546.875</v>
+      </c>
+      <c r="I142" s="6">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>1218.75</v>
-      </c>
-      <c r="J142" s="8">
+        <v>1328.125</v>
+      </c>
+      <c r="J142" s="6">
         <f t="shared" si="0"/>
-        <v>1156.25</v>
-      </c>
-      <c r="L142" s="8">
+        <v>1250</v>
+      </c>
+      <c r="L142" s="6">
         <f>SUM(G142:J143)</f>
-        <v>5398.4375</v>
+        <v>5789.0625</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3302,6 +3341,11 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/estadisticoHorasEmpleadas.xlsx
+++ b/estadisticoHorasEmpleadas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{EEDC8B22-D992-5C4A-8CBB-69FF66C4084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61294477-273A-8F43-89C0-657EFF50D978}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AD8C44-8DA2-954F-8771-F365D58F12FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{E923A452-E286-4F7D-AF6D-30DFC2805F3A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -394,6 +394,21 @@
                 <c:pt idx="98">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -541,6 +556,21 @@
                 <c:pt idx="98">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -679,6 +709,21 @@
                 <c:pt idx="98">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -819,6 +864,21 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,9 +1960,9 @@
   <dimension ref="E1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+      <selection pane="bottomLeft" activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1930,20 +1990,20 @@
     </row>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
@@ -3015,8 +3075,18 @@
       <c r="F104" s="3">
         <v>45065</v>
       </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+      <c r="G104" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H104" s="4">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F105" s="3">
@@ -3036,29 +3106,69 @@
       <c r="F107" s="3">
         <v>45068</v>
       </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
+      <c r="G107" s="4">
+        <v>2</v>
+      </c>
+      <c r="H107" s="4">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F108" s="3">
         <v>45069</v>
       </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
+      <c r="G108" s="4">
+        <v>2</v>
+      </c>
+      <c r="H108" s="4">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F109" s="3">
         <v>45070</v>
       </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
+      <c r="G109" s="4">
+        <v>2</v>
+      </c>
+      <c r="H109" s="4">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
     </row>
     <row r="110" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F110" s="3">
         <v>45071</v>
       </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="G110" s="4">
+        <v>4</v>
+      </c>
+      <c r="H110" s="4">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F111" s="3">
@@ -3239,42 +3349,42 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6">
+      <c r="E139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f>SUM(G5,G5:G137)</f>
-        <v>106.5</v>
-      </c>
-      <c r="H139" s="6">
+        <v>121</v>
+      </c>
+      <c r="H139" s="8">
         <f>SUM(H5,H6:H138)</f>
-        <v>99</v>
-      </c>
-      <c r="I139" s="6">
+        <v>111</v>
+      </c>
+      <c r="I139" s="8">
         <f>SUM(I5,I6:I138)</f>
-        <v>85</v>
-      </c>
-      <c r="J139" s="6">
+        <v>97</v>
+      </c>
+      <c r="J139" s="8">
         <f>SUM(J5,J6:J138)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K139">
         <f>G139+I139+H139+J139</f>
-        <v>370.5</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E141" s="9" t="s">
@@ -3293,45 +3403,50 @@
       <c r="J141" s="5">
         <v>15.625</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6">
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
         <f>PRODUCT(G139,G141)</f>
-        <v>1664.0625</v>
-      </c>
-      <c r="H142" s="6">
+        <v>1890.625</v>
+      </c>
+      <c r="H142" s="8">
         <f>PRODUCT(H139,H141)</f>
-        <v>1546.875</v>
-      </c>
-      <c r="I142" s="6">
+        <v>1734.375</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" ref="I142:J142" si="0">PRODUCT(I139,I141)</f>
-        <v>1328.125</v>
-      </c>
-      <c r="J142" s="6">
+        <v>1515.625</v>
+      </c>
+      <c r="J142" s="8">
         <f t="shared" si="0"/>
-        <v>1250</v>
-      </c>
-      <c r="L142" s="6">
+        <v>1406.25</v>
+      </c>
+      <c r="L142" s="8">
         <f>SUM(G142:J143)</f>
-        <v>5789.0625</v>
+        <v>6546.875</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="E139:F140"/>
     <mergeCell ref="G139:G140"/>
@@ -3341,11 +3456,6 @@
     <mergeCell ref="H142:H143"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="I142:I143"/>
-    <mergeCell ref="L139:L141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J142:J143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
